--- a/ar1/src/login_data.xlsx
+++ b/ar1/src/login_data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\eclipse\projects\ar1\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68B56FD-831F-4732-A97F-A922BCF9A6DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4237DA39-A416-4CE3-A2A2-8338E22C571D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2316" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>log1</t>
   </si>
@@ -54,15 +54,6 @@
     <t>RESULTS</t>
   </si>
   <si>
-    <t>testLogin true</t>
-  </si>
-  <si>
-    <t>testFirstName false</t>
-  </si>
-  <si>
-    <t>testFirstName true</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -136,12 +127,25 @@
   </si>
   <si>
     <t>test3 NOT passed</t>
+  </si>
+  <si>
+    <t>test passed</t>
+  </si>
+  <si>
+    <t>test NOT passed</t>
+  </si>
+  <si>
+    <t>test false</t>
+  </si>
+  <si>
+    <t>test true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,17 +476,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -530,15 +534,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B130216-A640-4B36-998C-4E9E18CD231B}">
-  <dimension ref="IL1:IL9"/>
+  <dimension ref="A1:IL9"/>
   <sheetViews>
-    <sheetView topLeftCell="IL1" workbookViewId="0">
-      <selection activeCell="IL1" sqref="IL1"/>
+    <sheetView tabSelected="1" topLeftCell="IL1" workbookViewId="0">
+      <selection activeCell="IL2" activeCellId="1" sqref="IL8 IL2:IL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="246" max="246" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="246" max="246" customWidth="true" width="17.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="246:246" x14ac:dyDescent="0.3">
@@ -546,44 +550,2004 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="246:246" x14ac:dyDescent="0.3">
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2"/>
+      <c r="GP2"/>
+      <c r="GQ2"/>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
+      <c r="HA2"/>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
+      <c r="HG2"/>
+      <c r="HH2"/>
+      <c r="HI2"/>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2"/>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
       <c r="IL2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="246:246" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
+      <c r="BQ3"/>
+      <c r="BR3"/>
+      <c r="BS3"/>
+      <c r="BT3"/>
+      <c r="BU3"/>
+      <c r="BV3"/>
+      <c r="BW3"/>
+      <c r="BX3"/>
+      <c r="BY3"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
+      <c r="CF3"/>
+      <c r="CG3"/>
+      <c r="CH3"/>
+      <c r="CI3"/>
+      <c r="CJ3"/>
+      <c r="CK3"/>
+      <c r="CL3"/>
+      <c r="CM3"/>
+      <c r="CN3"/>
+      <c r="CO3"/>
+      <c r="CP3"/>
+      <c r="CQ3"/>
+      <c r="CR3"/>
+      <c r="CS3"/>
+      <c r="CT3"/>
+      <c r="CU3"/>
+      <c r="CV3"/>
+      <c r="CW3"/>
+      <c r="CX3"/>
+      <c r="CY3"/>
+      <c r="CZ3"/>
+      <c r="DA3"/>
+      <c r="DB3"/>
+      <c r="DC3"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+      <c r="DR3"/>
+      <c r="DS3"/>
+      <c r="DT3"/>
+      <c r="DU3"/>
+      <c r="DV3"/>
+      <c r="DW3"/>
+      <c r="DX3"/>
+      <c r="DY3"/>
+      <c r="DZ3"/>
+      <c r="EA3"/>
+      <c r="EB3"/>
+      <c r="EC3"/>
+      <c r="ED3"/>
+      <c r="EE3"/>
+      <c r="EF3"/>
+      <c r="EG3"/>
+      <c r="EH3"/>
+      <c r="EI3"/>
+      <c r="EJ3"/>
+      <c r="EK3"/>
+      <c r="EL3"/>
+      <c r="EM3"/>
+      <c r="EN3"/>
+      <c r="EO3"/>
+      <c r="EP3"/>
+      <c r="EQ3"/>
+      <c r="ER3"/>
+      <c r="ES3"/>
+      <c r="ET3"/>
+      <c r="EU3"/>
+      <c r="EV3"/>
+      <c r="EW3"/>
+      <c r="EX3"/>
+      <c r="EY3"/>
+      <c r="EZ3"/>
+      <c r="FA3"/>
+      <c r="FB3"/>
+      <c r="FC3"/>
+      <c r="FD3"/>
+      <c r="FE3"/>
+      <c r="FF3"/>
+      <c r="FG3"/>
+      <c r="FH3"/>
+      <c r="FI3"/>
+      <c r="FJ3"/>
+      <c r="FK3"/>
+      <c r="FL3"/>
+      <c r="FM3"/>
+      <c r="FN3"/>
+      <c r="FO3"/>
+      <c r="FP3"/>
+      <c r="FQ3"/>
+      <c r="FR3"/>
+      <c r="FS3"/>
+      <c r="FT3"/>
+      <c r="FU3"/>
+      <c r="FV3"/>
+      <c r="FW3"/>
+      <c r="FX3"/>
+      <c r="FY3"/>
+      <c r="FZ3"/>
+      <c r="GA3"/>
+      <c r="GB3"/>
+      <c r="GC3"/>
+      <c r="GD3"/>
+      <c r="GE3"/>
+      <c r="GF3"/>
+      <c r="GG3"/>
+      <c r="GH3"/>
+      <c r="GI3"/>
+      <c r="GJ3"/>
+      <c r="GK3"/>
+      <c r="GL3"/>
+      <c r="GM3"/>
+      <c r="GN3"/>
+      <c r="GO3"/>
+      <c r="GP3"/>
+      <c r="GQ3"/>
+      <c r="GR3"/>
+      <c r="GS3"/>
+      <c r="GT3"/>
+      <c r="GU3"/>
+      <c r="GV3"/>
+      <c r="GW3"/>
+      <c r="GX3"/>
+      <c r="GY3"/>
+      <c r="GZ3"/>
+      <c r="HA3"/>
+      <c r="HB3"/>
+      <c r="HC3"/>
+      <c r="HD3"/>
+      <c r="HE3"/>
+      <c r="HF3"/>
+      <c r="HG3"/>
+      <c r="HH3"/>
+      <c r="HI3"/>
+      <c r="HJ3"/>
+      <c r="HK3"/>
+      <c r="HL3"/>
+      <c r="HM3"/>
+      <c r="HN3"/>
+      <c r="HO3"/>
+      <c r="HP3"/>
+      <c r="HQ3"/>
+      <c r="HR3"/>
+      <c r="HS3"/>
+      <c r="HT3"/>
+      <c r="HU3"/>
+      <c r="HV3"/>
+      <c r="HW3"/>
+      <c r="HX3"/>
+      <c r="HY3"/>
+      <c r="HZ3"/>
+      <c r="IA3"/>
+      <c r="IB3"/>
+      <c r="IC3"/>
+      <c r="ID3"/>
+      <c r="IE3"/>
+      <c r="IF3"/>
+      <c r="IG3"/>
+      <c r="IH3"/>
+      <c r="II3"/>
+      <c r="IJ3"/>
+      <c r="IK3"/>
       <c r="IL3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="246:246" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4"/>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4"/>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4"/>
+      <c r="BT4"/>
+      <c r="BU4"/>
+      <c r="BV4"/>
+      <c r="BW4"/>
+      <c r="BX4"/>
+      <c r="BY4"/>
+      <c r="BZ4"/>
+      <c r="CA4"/>
+      <c r="CB4"/>
+      <c r="CC4"/>
+      <c r="CD4"/>
+      <c r="CE4"/>
+      <c r="CF4"/>
+      <c r="CG4"/>
+      <c r="CH4"/>
+      <c r="CI4"/>
+      <c r="CJ4"/>
+      <c r="CK4"/>
+      <c r="CL4"/>
+      <c r="CM4"/>
+      <c r="CN4"/>
+      <c r="CO4"/>
+      <c r="CP4"/>
+      <c r="CQ4"/>
+      <c r="CR4"/>
+      <c r="CS4"/>
+      <c r="CT4"/>
+      <c r="CU4"/>
+      <c r="CV4"/>
+      <c r="CW4"/>
+      <c r="CX4"/>
+      <c r="CY4"/>
+      <c r="CZ4"/>
+      <c r="DA4"/>
+      <c r="DB4"/>
+      <c r="DC4"/>
+      <c r="DD4"/>
+      <c r="DE4"/>
+      <c r="DF4"/>
+      <c r="DG4"/>
+      <c r="DH4"/>
+      <c r="DI4"/>
+      <c r="DJ4"/>
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+      <c r="DR4"/>
+      <c r="DS4"/>
+      <c r="DT4"/>
+      <c r="DU4"/>
+      <c r="DV4"/>
+      <c r="DW4"/>
+      <c r="DX4"/>
+      <c r="DY4"/>
+      <c r="DZ4"/>
+      <c r="EA4"/>
+      <c r="EB4"/>
+      <c r="EC4"/>
+      <c r="ED4"/>
+      <c r="EE4"/>
+      <c r="EF4"/>
+      <c r="EG4"/>
+      <c r="EH4"/>
+      <c r="EI4"/>
+      <c r="EJ4"/>
+      <c r="EK4"/>
+      <c r="EL4"/>
+      <c r="EM4"/>
+      <c r="EN4"/>
+      <c r="EO4"/>
+      <c r="EP4"/>
+      <c r="EQ4"/>
+      <c r="ER4"/>
+      <c r="ES4"/>
+      <c r="ET4"/>
+      <c r="EU4"/>
+      <c r="EV4"/>
+      <c r="EW4"/>
+      <c r="EX4"/>
+      <c r="EY4"/>
+      <c r="EZ4"/>
+      <c r="FA4"/>
+      <c r="FB4"/>
+      <c r="FC4"/>
+      <c r="FD4"/>
+      <c r="FE4"/>
+      <c r="FF4"/>
+      <c r="FG4"/>
+      <c r="FH4"/>
+      <c r="FI4"/>
+      <c r="FJ4"/>
+      <c r="FK4"/>
+      <c r="FL4"/>
+      <c r="FM4"/>
+      <c r="FN4"/>
+      <c r="FO4"/>
+      <c r="FP4"/>
+      <c r="FQ4"/>
+      <c r="FR4"/>
+      <c r="FS4"/>
+      <c r="FT4"/>
+      <c r="FU4"/>
+      <c r="FV4"/>
+      <c r="FW4"/>
+      <c r="FX4"/>
+      <c r="FY4"/>
+      <c r="FZ4"/>
+      <c r="GA4"/>
+      <c r="GB4"/>
+      <c r="GC4"/>
+      <c r="GD4"/>
+      <c r="GE4"/>
+      <c r="GF4"/>
+      <c r="GG4"/>
+      <c r="GH4"/>
+      <c r="GI4"/>
+      <c r="GJ4"/>
+      <c r="GK4"/>
+      <c r="GL4"/>
+      <c r="GM4"/>
+      <c r="GN4"/>
+      <c r="GO4"/>
+      <c r="GP4"/>
+      <c r="GQ4"/>
+      <c r="GR4"/>
+      <c r="GS4"/>
+      <c r="GT4"/>
+      <c r="GU4"/>
+      <c r="GV4"/>
+      <c r="GW4"/>
+      <c r="GX4"/>
+      <c r="GY4"/>
+      <c r="GZ4"/>
+      <c r="HA4"/>
+      <c r="HB4"/>
+      <c r="HC4"/>
+      <c r="HD4"/>
+      <c r="HE4"/>
+      <c r="HF4"/>
+      <c r="HG4"/>
+      <c r="HH4"/>
+      <c r="HI4"/>
+      <c r="HJ4"/>
+      <c r="HK4"/>
+      <c r="HL4"/>
+      <c r="HM4"/>
+      <c r="HN4"/>
+      <c r="HO4"/>
+      <c r="HP4"/>
+      <c r="HQ4"/>
+      <c r="HR4"/>
+      <c r="HS4"/>
+      <c r="HT4"/>
+      <c r="HU4"/>
+      <c r="HV4"/>
+      <c r="HW4"/>
+      <c r="HX4"/>
+      <c r="HY4"/>
+      <c r="HZ4"/>
+      <c r="IA4"/>
+      <c r="IB4"/>
+      <c r="IC4"/>
+      <c r="ID4"/>
+      <c r="IE4"/>
+      <c r="IF4"/>
+      <c r="IG4"/>
+      <c r="IH4"/>
+      <c r="II4"/>
+      <c r="IJ4"/>
+      <c r="IK4"/>
       <c r="IL4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="246:246" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+      <c r="BM5"/>
+      <c r="BN5"/>
+      <c r="BO5"/>
+      <c r="BP5"/>
+      <c r="BQ5"/>
+      <c r="BR5"/>
+      <c r="BS5"/>
+      <c r="BT5"/>
+      <c r="BU5"/>
+      <c r="BV5"/>
+      <c r="BW5"/>
+      <c r="BX5"/>
+      <c r="BY5"/>
+      <c r="BZ5"/>
+      <c r="CA5"/>
+      <c r="CB5"/>
+      <c r="CC5"/>
+      <c r="CD5"/>
+      <c r="CE5"/>
+      <c r="CF5"/>
+      <c r="CG5"/>
+      <c r="CH5"/>
+      <c r="CI5"/>
+      <c r="CJ5"/>
+      <c r="CK5"/>
+      <c r="CL5"/>
+      <c r="CM5"/>
+      <c r="CN5"/>
+      <c r="CO5"/>
+      <c r="CP5"/>
+      <c r="CQ5"/>
+      <c r="CR5"/>
+      <c r="CS5"/>
+      <c r="CT5"/>
+      <c r="CU5"/>
+      <c r="CV5"/>
+      <c r="CW5"/>
+      <c r="CX5"/>
+      <c r="CY5"/>
+      <c r="CZ5"/>
+      <c r="DA5"/>
+      <c r="DB5"/>
+      <c r="DC5"/>
+      <c r="DD5"/>
+      <c r="DE5"/>
+      <c r="DF5"/>
+      <c r="DG5"/>
+      <c r="DH5"/>
+      <c r="DI5"/>
+      <c r="DJ5"/>
+      <c r="DK5"/>
+      <c r="DL5"/>
+      <c r="DM5"/>
+      <c r="DN5"/>
+      <c r="DO5"/>
+      <c r="DP5"/>
+      <c r="DQ5"/>
+      <c r="DR5"/>
+      <c r="DS5"/>
+      <c r="DT5"/>
+      <c r="DU5"/>
+      <c r="DV5"/>
+      <c r="DW5"/>
+      <c r="DX5"/>
+      <c r="DY5"/>
+      <c r="DZ5"/>
+      <c r="EA5"/>
+      <c r="EB5"/>
+      <c r="EC5"/>
+      <c r="ED5"/>
+      <c r="EE5"/>
+      <c r="EF5"/>
+      <c r="EG5"/>
+      <c r="EH5"/>
+      <c r="EI5"/>
+      <c r="EJ5"/>
+      <c r="EK5"/>
+      <c r="EL5"/>
+      <c r="EM5"/>
+      <c r="EN5"/>
+      <c r="EO5"/>
+      <c r="EP5"/>
+      <c r="EQ5"/>
+      <c r="ER5"/>
+      <c r="ES5"/>
+      <c r="ET5"/>
+      <c r="EU5"/>
+      <c r="EV5"/>
+      <c r="EW5"/>
+      <c r="EX5"/>
+      <c r="EY5"/>
+      <c r="EZ5"/>
+      <c r="FA5"/>
+      <c r="FB5"/>
+      <c r="FC5"/>
+      <c r="FD5"/>
+      <c r="FE5"/>
+      <c r="FF5"/>
+      <c r="FG5"/>
+      <c r="FH5"/>
+      <c r="FI5"/>
+      <c r="FJ5"/>
+      <c r="FK5"/>
+      <c r="FL5"/>
+      <c r="FM5"/>
+      <c r="FN5"/>
+      <c r="FO5"/>
+      <c r="FP5"/>
+      <c r="FQ5"/>
+      <c r="FR5"/>
+      <c r="FS5"/>
+      <c r="FT5"/>
+      <c r="FU5"/>
+      <c r="FV5"/>
+      <c r="FW5"/>
+      <c r="FX5"/>
+      <c r="FY5"/>
+      <c r="FZ5"/>
+      <c r="GA5"/>
+      <c r="GB5"/>
+      <c r="GC5"/>
+      <c r="GD5"/>
+      <c r="GE5"/>
+      <c r="GF5"/>
+      <c r="GG5"/>
+      <c r="GH5"/>
+      <c r="GI5"/>
+      <c r="GJ5"/>
+      <c r="GK5"/>
+      <c r="GL5"/>
+      <c r="GM5"/>
+      <c r="GN5"/>
+      <c r="GO5"/>
+      <c r="GP5"/>
+      <c r="GQ5"/>
+      <c r="GR5"/>
+      <c r="GS5"/>
+      <c r="GT5"/>
+      <c r="GU5"/>
+      <c r="GV5"/>
+      <c r="GW5"/>
+      <c r="GX5"/>
+      <c r="GY5"/>
+      <c r="GZ5"/>
+      <c r="HA5"/>
+      <c r="HB5"/>
+      <c r="HC5"/>
+      <c r="HD5"/>
+      <c r="HE5"/>
+      <c r="HF5"/>
+      <c r="HG5"/>
+      <c r="HH5"/>
+      <c r="HI5"/>
+      <c r="HJ5"/>
+      <c r="HK5"/>
+      <c r="HL5"/>
+      <c r="HM5"/>
+      <c r="HN5"/>
+      <c r="HO5"/>
+      <c r="HP5"/>
+      <c r="HQ5"/>
+      <c r="HR5"/>
+      <c r="HS5"/>
+      <c r="HT5"/>
+      <c r="HU5"/>
+      <c r="HV5"/>
+      <c r="HW5"/>
+      <c r="HX5"/>
+      <c r="HY5"/>
+      <c r="HZ5"/>
+      <c r="IA5"/>
+      <c r="IB5"/>
+      <c r="IC5"/>
+      <c r="ID5"/>
+      <c r="IE5"/>
+      <c r="IF5"/>
+      <c r="IG5"/>
+      <c r="IH5"/>
+      <c r="II5"/>
+      <c r="IJ5"/>
+      <c r="IK5"/>
       <c r="IL5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="246:246" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+      <c r="BM6"/>
+      <c r="BN6"/>
+      <c r="BO6"/>
+      <c r="BP6"/>
+      <c r="BQ6"/>
+      <c r="BR6"/>
+      <c r="BS6"/>
+      <c r="BT6"/>
+      <c r="BU6"/>
+      <c r="BV6"/>
+      <c r="BW6"/>
+      <c r="BX6"/>
+      <c r="BY6"/>
+      <c r="BZ6"/>
+      <c r="CA6"/>
+      <c r="CB6"/>
+      <c r="CC6"/>
+      <c r="CD6"/>
+      <c r="CE6"/>
+      <c r="CF6"/>
+      <c r="CG6"/>
+      <c r="CH6"/>
+      <c r="CI6"/>
+      <c r="CJ6"/>
+      <c r="CK6"/>
+      <c r="CL6"/>
+      <c r="CM6"/>
+      <c r="CN6"/>
+      <c r="CO6"/>
+      <c r="CP6"/>
+      <c r="CQ6"/>
+      <c r="CR6"/>
+      <c r="CS6"/>
+      <c r="CT6"/>
+      <c r="CU6"/>
+      <c r="CV6"/>
+      <c r="CW6"/>
+      <c r="CX6"/>
+      <c r="CY6"/>
+      <c r="CZ6"/>
+      <c r="DA6"/>
+      <c r="DB6"/>
+      <c r="DC6"/>
+      <c r="DD6"/>
+      <c r="DE6"/>
+      <c r="DF6"/>
+      <c r="DG6"/>
+      <c r="DH6"/>
+      <c r="DI6"/>
+      <c r="DJ6"/>
+      <c r="DK6"/>
+      <c r="DL6"/>
+      <c r="DM6"/>
+      <c r="DN6"/>
+      <c r="DO6"/>
+      <c r="DP6"/>
+      <c r="DQ6"/>
+      <c r="DR6"/>
+      <c r="DS6"/>
+      <c r="DT6"/>
+      <c r="DU6"/>
+      <c r="DV6"/>
+      <c r="DW6"/>
+      <c r="DX6"/>
+      <c r="DY6"/>
+      <c r="DZ6"/>
+      <c r="EA6"/>
+      <c r="EB6"/>
+      <c r="EC6"/>
+      <c r="ED6"/>
+      <c r="EE6"/>
+      <c r="EF6"/>
+      <c r="EG6"/>
+      <c r="EH6"/>
+      <c r="EI6"/>
+      <c r="EJ6"/>
+      <c r="EK6"/>
+      <c r="EL6"/>
+      <c r="EM6"/>
+      <c r="EN6"/>
+      <c r="EO6"/>
+      <c r="EP6"/>
+      <c r="EQ6"/>
+      <c r="ER6"/>
+      <c r="ES6"/>
+      <c r="ET6"/>
+      <c r="EU6"/>
+      <c r="EV6"/>
+      <c r="EW6"/>
+      <c r="EX6"/>
+      <c r="EY6"/>
+      <c r="EZ6"/>
+      <c r="FA6"/>
+      <c r="FB6"/>
+      <c r="FC6"/>
+      <c r="FD6"/>
+      <c r="FE6"/>
+      <c r="FF6"/>
+      <c r="FG6"/>
+      <c r="FH6"/>
+      <c r="FI6"/>
+      <c r="FJ6"/>
+      <c r="FK6"/>
+      <c r="FL6"/>
+      <c r="FM6"/>
+      <c r="FN6"/>
+      <c r="FO6"/>
+      <c r="FP6"/>
+      <c r="FQ6"/>
+      <c r="FR6"/>
+      <c r="FS6"/>
+      <c r="FT6"/>
+      <c r="FU6"/>
+      <c r="FV6"/>
+      <c r="FW6"/>
+      <c r="FX6"/>
+      <c r="FY6"/>
+      <c r="FZ6"/>
+      <c r="GA6"/>
+      <c r="GB6"/>
+      <c r="GC6"/>
+      <c r="GD6"/>
+      <c r="GE6"/>
+      <c r="GF6"/>
+      <c r="GG6"/>
+      <c r="GH6"/>
+      <c r="GI6"/>
+      <c r="GJ6"/>
+      <c r="GK6"/>
+      <c r="GL6"/>
+      <c r="GM6"/>
+      <c r="GN6"/>
+      <c r="GO6"/>
+      <c r="GP6"/>
+      <c r="GQ6"/>
+      <c r="GR6"/>
+      <c r="GS6"/>
+      <c r="GT6"/>
+      <c r="GU6"/>
+      <c r="GV6"/>
+      <c r="GW6"/>
+      <c r="GX6"/>
+      <c r="GY6"/>
+      <c r="GZ6"/>
+      <c r="HA6"/>
+      <c r="HB6"/>
+      <c r="HC6"/>
+      <c r="HD6"/>
+      <c r="HE6"/>
+      <c r="HF6"/>
+      <c r="HG6"/>
+      <c r="HH6"/>
+      <c r="HI6"/>
+      <c r="HJ6"/>
+      <c r="HK6"/>
+      <c r="HL6"/>
+      <c r="HM6"/>
+      <c r="HN6"/>
+      <c r="HO6"/>
+      <c r="HP6"/>
+      <c r="HQ6"/>
+      <c r="HR6"/>
+      <c r="HS6"/>
+      <c r="HT6"/>
+      <c r="HU6"/>
+      <c r="HV6"/>
+      <c r="HW6"/>
+      <c r="HX6"/>
+      <c r="HY6"/>
+      <c r="HZ6"/>
+      <c r="IA6"/>
+      <c r="IB6"/>
+      <c r="IC6"/>
+      <c r="ID6"/>
+      <c r="IE6"/>
+      <c r="IF6"/>
+      <c r="IG6"/>
+      <c r="IH6"/>
+      <c r="II6"/>
+      <c r="IJ6"/>
+      <c r="IK6"/>
       <c r="IL6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="246:246" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7"/>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7"/>
+      <c r="BQ7"/>
+      <c r="BR7"/>
+      <c r="BS7"/>
+      <c r="BT7"/>
+      <c r="BU7"/>
+      <c r="BV7"/>
+      <c r="BW7"/>
+      <c r="BX7"/>
+      <c r="BY7"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7"/>
+      <c r="CF7"/>
+      <c r="CG7"/>
+      <c r="CH7"/>
+      <c r="CI7"/>
+      <c r="CJ7"/>
+      <c r="CK7"/>
+      <c r="CL7"/>
+      <c r="CM7"/>
+      <c r="CN7"/>
+      <c r="CO7"/>
+      <c r="CP7"/>
+      <c r="CQ7"/>
+      <c r="CR7"/>
+      <c r="CS7"/>
+      <c r="CT7"/>
+      <c r="CU7"/>
+      <c r="CV7"/>
+      <c r="CW7"/>
+      <c r="CX7"/>
+      <c r="CY7"/>
+      <c r="CZ7"/>
+      <c r="DA7"/>
+      <c r="DB7"/>
+      <c r="DC7"/>
+      <c r="DD7"/>
+      <c r="DE7"/>
+      <c r="DF7"/>
+      <c r="DG7"/>
+      <c r="DH7"/>
+      <c r="DI7"/>
+      <c r="DJ7"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+      <c r="DR7"/>
+      <c r="DS7"/>
+      <c r="DT7"/>
+      <c r="DU7"/>
+      <c r="DV7"/>
+      <c r="DW7"/>
+      <c r="DX7"/>
+      <c r="DY7"/>
+      <c r="DZ7"/>
+      <c r="EA7"/>
+      <c r="EB7"/>
+      <c r="EC7"/>
+      <c r="ED7"/>
+      <c r="EE7"/>
+      <c r="EF7"/>
+      <c r="EG7"/>
+      <c r="EH7"/>
+      <c r="EI7"/>
+      <c r="EJ7"/>
+      <c r="EK7"/>
+      <c r="EL7"/>
+      <c r="EM7"/>
+      <c r="EN7"/>
+      <c r="EO7"/>
+      <c r="EP7"/>
+      <c r="EQ7"/>
+      <c r="ER7"/>
+      <c r="ES7"/>
+      <c r="ET7"/>
+      <c r="EU7"/>
+      <c r="EV7"/>
+      <c r="EW7"/>
+      <c r="EX7"/>
+      <c r="EY7"/>
+      <c r="EZ7"/>
+      <c r="FA7"/>
+      <c r="FB7"/>
+      <c r="FC7"/>
+      <c r="FD7"/>
+      <c r="FE7"/>
+      <c r="FF7"/>
+      <c r="FG7"/>
+      <c r="FH7"/>
+      <c r="FI7"/>
+      <c r="FJ7"/>
+      <c r="FK7"/>
+      <c r="FL7"/>
+      <c r="FM7"/>
+      <c r="FN7"/>
+      <c r="FO7"/>
+      <c r="FP7"/>
+      <c r="FQ7"/>
+      <c r="FR7"/>
+      <c r="FS7"/>
+      <c r="FT7"/>
+      <c r="FU7"/>
+      <c r="FV7"/>
+      <c r="FW7"/>
+      <c r="FX7"/>
+      <c r="FY7"/>
+      <c r="FZ7"/>
+      <c r="GA7"/>
+      <c r="GB7"/>
+      <c r="GC7"/>
+      <c r="GD7"/>
+      <c r="GE7"/>
+      <c r="GF7"/>
+      <c r="GG7"/>
+      <c r="GH7"/>
+      <c r="GI7"/>
+      <c r="GJ7"/>
+      <c r="GK7"/>
+      <c r="GL7"/>
+      <c r="GM7"/>
+      <c r="GN7"/>
+      <c r="GO7"/>
+      <c r="GP7"/>
+      <c r="GQ7"/>
+      <c r="GR7"/>
+      <c r="GS7"/>
+      <c r="GT7"/>
+      <c r="GU7"/>
+      <c r="GV7"/>
+      <c r="GW7"/>
+      <c r="GX7"/>
+      <c r="GY7"/>
+      <c r="GZ7"/>
+      <c r="HA7"/>
+      <c r="HB7"/>
+      <c r="HC7"/>
+      <c r="HD7"/>
+      <c r="HE7"/>
+      <c r="HF7"/>
+      <c r="HG7"/>
+      <c r="HH7"/>
+      <c r="HI7"/>
+      <c r="HJ7"/>
+      <c r="HK7"/>
+      <c r="HL7"/>
+      <c r="HM7"/>
+      <c r="HN7"/>
+      <c r="HO7"/>
+      <c r="HP7"/>
+      <c r="HQ7"/>
+      <c r="HR7"/>
+      <c r="HS7"/>
+      <c r="HT7"/>
+      <c r="HU7"/>
+      <c r="HV7"/>
+      <c r="HW7"/>
+      <c r="HX7"/>
+      <c r="HY7"/>
+      <c r="HZ7"/>
+      <c r="IA7"/>
+      <c r="IB7"/>
+      <c r="IC7"/>
+      <c r="ID7"/>
+      <c r="IE7"/>
+      <c r="IF7"/>
+      <c r="IG7"/>
+      <c r="IH7"/>
+      <c r="II7"/>
+      <c r="IJ7"/>
+      <c r="IK7"/>
       <c r="IL7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="246:246" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+      <c r="BM8"/>
+      <c r="BN8"/>
+      <c r="BO8"/>
+      <c r="BP8"/>
+      <c r="BQ8"/>
+      <c r="BR8"/>
+      <c r="BS8"/>
+      <c r="BT8"/>
+      <c r="BU8"/>
+      <c r="BV8"/>
+      <c r="BW8"/>
+      <c r="BX8"/>
+      <c r="BY8"/>
+      <c r="BZ8"/>
+      <c r="CA8"/>
+      <c r="CB8"/>
+      <c r="CC8"/>
+      <c r="CD8"/>
+      <c r="CE8"/>
+      <c r="CF8"/>
+      <c r="CG8"/>
+      <c r="CH8"/>
+      <c r="CI8"/>
+      <c r="CJ8"/>
+      <c r="CK8"/>
+      <c r="CL8"/>
+      <c r="CM8"/>
+      <c r="CN8"/>
+      <c r="CO8"/>
+      <c r="CP8"/>
+      <c r="CQ8"/>
+      <c r="CR8"/>
+      <c r="CS8"/>
+      <c r="CT8"/>
+      <c r="CU8"/>
+      <c r="CV8"/>
+      <c r="CW8"/>
+      <c r="CX8"/>
+      <c r="CY8"/>
+      <c r="CZ8"/>
+      <c r="DA8"/>
+      <c r="DB8"/>
+      <c r="DC8"/>
+      <c r="DD8"/>
+      <c r="DE8"/>
+      <c r="DF8"/>
+      <c r="DG8"/>
+      <c r="DH8"/>
+      <c r="DI8"/>
+      <c r="DJ8"/>
+      <c r="DK8"/>
+      <c r="DL8"/>
+      <c r="DM8"/>
+      <c r="DN8"/>
+      <c r="DO8"/>
+      <c r="DP8"/>
+      <c r="DQ8"/>
+      <c r="DR8"/>
+      <c r="DS8"/>
+      <c r="DT8"/>
+      <c r="DU8"/>
+      <c r="DV8"/>
+      <c r="DW8"/>
+      <c r="DX8"/>
+      <c r="DY8"/>
+      <c r="DZ8"/>
+      <c r="EA8"/>
+      <c r="EB8"/>
+      <c r="EC8"/>
+      <c r="ED8"/>
+      <c r="EE8"/>
+      <c r="EF8"/>
+      <c r="EG8"/>
+      <c r="EH8"/>
+      <c r="EI8"/>
+      <c r="EJ8"/>
+      <c r="EK8"/>
+      <c r="EL8"/>
+      <c r="EM8"/>
+      <c r="EN8"/>
+      <c r="EO8"/>
+      <c r="EP8"/>
+      <c r="EQ8"/>
+      <c r="ER8"/>
+      <c r="ES8"/>
+      <c r="ET8"/>
+      <c r="EU8"/>
+      <c r="EV8"/>
+      <c r="EW8"/>
+      <c r="EX8"/>
+      <c r="EY8"/>
+      <c r="EZ8"/>
+      <c r="FA8"/>
+      <c r="FB8"/>
+      <c r="FC8"/>
+      <c r="FD8"/>
+      <c r="FE8"/>
+      <c r="FF8"/>
+      <c r="FG8"/>
+      <c r="FH8"/>
+      <c r="FI8"/>
+      <c r="FJ8"/>
+      <c r="FK8"/>
+      <c r="FL8"/>
+      <c r="FM8"/>
+      <c r="FN8"/>
+      <c r="FO8"/>
+      <c r="FP8"/>
+      <c r="FQ8"/>
+      <c r="FR8"/>
+      <c r="FS8"/>
+      <c r="FT8"/>
+      <c r="FU8"/>
+      <c r="FV8"/>
+      <c r="FW8"/>
+      <c r="FX8"/>
+      <c r="FY8"/>
+      <c r="FZ8"/>
+      <c r="GA8"/>
+      <c r="GB8"/>
+      <c r="GC8"/>
+      <c r="GD8"/>
+      <c r="GE8"/>
+      <c r="GF8"/>
+      <c r="GG8"/>
+      <c r="GH8"/>
+      <c r="GI8"/>
+      <c r="GJ8"/>
+      <c r="GK8"/>
+      <c r="GL8"/>
+      <c r="GM8"/>
+      <c r="GN8"/>
+      <c r="GO8"/>
+      <c r="GP8"/>
+      <c r="GQ8"/>
+      <c r="GR8"/>
+      <c r="GS8"/>
+      <c r="GT8"/>
+      <c r="GU8"/>
+      <c r="GV8"/>
+      <c r="GW8"/>
+      <c r="GX8"/>
+      <c r="GY8"/>
+      <c r="GZ8"/>
+      <c r="HA8"/>
+      <c r="HB8"/>
+      <c r="HC8"/>
+      <c r="HD8"/>
+      <c r="HE8"/>
+      <c r="HF8"/>
+      <c r="HG8"/>
+      <c r="HH8"/>
+      <c r="HI8"/>
+      <c r="HJ8"/>
+      <c r="HK8"/>
+      <c r="HL8"/>
+      <c r="HM8"/>
+      <c r="HN8"/>
+      <c r="HO8"/>
+      <c r="HP8"/>
+      <c r="HQ8"/>
+      <c r="HR8"/>
+      <c r="HS8"/>
+      <c r="HT8"/>
+      <c r="HU8"/>
+      <c r="HV8"/>
+      <c r="HW8"/>
+      <c r="HX8"/>
+      <c r="HY8"/>
+      <c r="HZ8"/>
+      <c r="IA8"/>
+      <c r="IB8"/>
+      <c r="IC8"/>
+      <c r="ID8"/>
+      <c r="IE8"/>
+      <c r="IF8"/>
+      <c r="IG8"/>
+      <c r="IH8"/>
+      <c r="II8"/>
+      <c r="IJ8"/>
+      <c r="IK8"/>
       <c r="IL8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="246:246" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9"/>
+      <c r="BQ9"/>
+      <c r="BR9"/>
+      <c r="BS9"/>
+      <c r="BT9"/>
+      <c r="BU9"/>
+      <c r="BV9"/>
+      <c r="BW9"/>
+      <c r="BX9"/>
+      <c r="BY9"/>
+      <c r="BZ9"/>
+      <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
+      <c r="CD9"/>
+      <c r="CE9"/>
+      <c r="CF9"/>
+      <c r="CG9"/>
+      <c r="CH9"/>
+      <c r="CI9"/>
+      <c r="CJ9"/>
+      <c r="CK9"/>
+      <c r="CL9"/>
+      <c r="CM9"/>
+      <c r="CN9"/>
+      <c r="CO9"/>
+      <c r="CP9"/>
+      <c r="CQ9"/>
+      <c r="CR9"/>
+      <c r="CS9"/>
+      <c r="CT9"/>
+      <c r="CU9"/>
+      <c r="CV9"/>
+      <c r="CW9"/>
+      <c r="CX9"/>
+      <c r="CY9"/>
+      <c r="CZ9"/>
+      <c r="DA9"/>
+      <c r="DB9"/>
+      <c r="DC9"/>
+      <c r="DD9"/>
+      <c r="DE9"/>
+      <c r="DF9"/>
+      <c r="DG9"/>
+      <c r="DH9"/>
+      <c r="DI9"/>
+      <c r="DJ9"/>
+      <c r="DK9"/>
+      <c r="DL9"/>
+      <c r="DM9"/>
+      <c r="DN9"/>
+      <c r="DO9"/>
+      <c r="DP9"/>
+      <c r="DQ9"/>
+      <c r="DR9"/>
+      <c r="DS9"/>
+      <c r="DT9"/>
+      <c r="DU9"/>
+      <c r="DV9"/>
+      <c r="DW9"/>
+      <c r="DX9"/>
+      <c r="DY9"/>
+      <c r="DZ9"/>
+      <c r="EA9"/>
+      <c r="EB9"/>
+      <c r="EC9"/>
+      <c r="ED9"/>
+      <c r="EE9"/>
+      <c r="EF9"/>
+      <c r="EG9"/>
+      <c r="EH9"/>
+      <c r="EI9"/>
+      <c r="EJ9"/>
+      <c r="EK9"/>
+      <c r="EL9"/>
+      <c r="EM9"/>
+      <c r="EN9"/>
+      <c r="EO9"/>
+      <c r="EP9"/>
+      <c r="EQ9"/>
+      <c r="ER9"/>
+      <c r="ES9"/>
+      <c r="ET9"/>
+      <c r="EU9"/>
+      <c r="EV9"/>
+      <c r="EW9"/>
+      <c r="EX9"/>
+      <c r="EY9"/>
+      <c r="EZ9"/>
+      <c r="FA9"/>
+      <c r="FB9"/>
+      <c r="FC9"/>
+      <c r="FD9"/>
+      <c r="FE9"/>
+      <c r="FF9"/>
+      <c r="FG9"/>
+      <c r="FH9"/>
+      <c r="FI9"/>
+      <c r="FJ9"/>
+      <c r="FK9"/>
+      <c r="FL9"/>
+      <c r="FM9"/>
+      <c r="FN9"/>
+      <c r="FO9"/>
+      <c r="FP9"/>
+      <c r="FQ9"/>
+      <c r="FR9"/>
+      <c r="FS9"/>
+      <c r="FT9"/>
+      <c r="FU9"/>
+      <c r="FV9"/>
+      <c r="FW9"/>
+      <c r="FX9"/>
+      <c r="FY9"/>
+      <c r="FZ9"/>
+      <c r="GA9"/>
+      <c r="GB9"/>
+      <c r="GC9"/>
+      <c r="GD9"/>
+      <c r="GE9"/>
+      <c r="GF9"/>
+      <c r="GG9"/>
+      <c r="GH9"/>
+      <c r="GI9"/>
+      <c r="GJ9"/>
+      <c r="GK9"/>
+      <c r="GL9"/>
+      <c r="GM9"/>
+      <c r="GN9"/>
+      <c r="GO9"/>
+      <c r="GP9"/>
+      <c r="GQ9"/>
+      <c r="GR9"/>
+      <c r="GS9"/>
+      <c r="GT9"/>
+      <c r="GU9"/>
+      <c r="GV9"/>
+      <c r="GW9"/>
+      <c r="GX9"/>
+      <c r="GY9"/>
+      <c r="GZ9"/>
+      <c r="HA9"/>
+      <c r="HB9"/>
+      <c r="HC9"/>
+      <c r="HD9"/>
+      <c r="HE9"/>
+      <c r="HF9"/>
+      <c r="HG9"/>
+      <c r="HH9"/>
+      <c r="HI9"/>
+      <c r="HJ9"/>
+      <c r="HK9"/>
+      <c r="HL9"/>
+      <c r="HM9"/>
+      <c r="HN9"/>
+      <c r="HO9"/>
+      <c r="HP9"/>
+      <c r="HQ9"/>
+      <c r="HR9"/>
+      <c r="HS9"/>
+      <c r="HT9"/>
+      <c r="HU9"/>
+      <c r="HV9"/>
+      <c r="HW9"/>
+      <c r="HX9"/>
+      <c r="HY9"/>
+      <c r="HZ9"/>
+      <c r="IA9"/>
+      <c r="IB9"/>
+      <c r="IC9"/>
+      <c r="ID9"/>
+      <c r="IE9"/>
+      <c r="IF9"/>
+      <c r="IG9"/>
+      <c r="IH9"/>
+      <c r="II9"/>
+      <c r="IJ9"/>
+      <c r="IK9"/>
       <c r="IL9" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -601,49 +2565,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -651,42 +2615,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -701,13 +2665,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB44428-5CC3-4BD7-8490-8D12402B5E08}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -717,17 +2681,92 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
